--- a/prueba25/B.06390_FFT_PS_MB_VAN_EA_DF1_Mangueras(1).xlsx
+++ b/prueba25/B.06390_FFT_PS_MB_VAN_EA_DF1_Mangueras(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enkro\P00106-ENKROSS_PRUEBA3_AUTOMATIZACION\prueba25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0251D77C-8B5F-4292-9034-1879390F3C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0D2E4A-F7A2-40D8-B92C-2F2986C2B3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-180" windowWidth="30936" windowHeight="16776" xr2:uid="{316398B4-956C-4C76-9070-795AC31D2C0E}"/>
   </bookViews>
@@ -2648,7 +2648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2656,6 +2656,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2997,13 +2998,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2279A5F1-223A-4CAC-A2A7-E79714ACF4DF}">
   <dimension ref="A1:R310"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="40.44140625" customWidth="1"/>
     <col min="3" max="3" width="21.21875" customWidth="1"/>
     <col min="4" max="4" width="26.44140625" customWidth="1"/>
@@ -3013,7 +3014,7 @@
     <col min="8" max="8" width="64.88671875" customWidth="1"/>
     <col min="9" max="9" width="29" customWidth="1"/>
     <col min="10" max="10" width="36.77734375" customWidth="1"/>
-    <col min="11" max="11" width="48.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="48.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="27.21875" customWidth="1"/>
     <col min="13" max="13" width="41.33203125" customWidth="1"/>
     <col min="14" max="14" width="11.77734375" bestFit="1" customWidth="1"/>
@@ -3725,7 +3726,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -17558,15 +17559,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005CCE8C70ADE6FD4DB948CF3BFC52CAB6" ma:contentTypeVersion="18" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d0d6baa5fddc89d1005b112fecbf2377">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4578e3cf-dc59-46b9-b473-9d64d86ba65a" xmlns:ns3="565c94a9-9f9d-407f-a547-016888b2b680" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6d27b4b9bbf274307dd4fa983c05e6fa" ns2:_="" ns3:_="">
     <xsd:import namespace="4578e3cf-dc59-46b9-b473-9d64d86ba65a"/>
@@ -17821,6 +17813,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{960310BD-82B8-49B8-B945-56B288D99ACF}">
   <ds:schemaRefs>
@@ -17833,14 +17834,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3C5C650-29AC-421F-AA7E-CD45E7DCCD8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED6AB0BC-81D3-460E-808A-9EDDBCBC1CCC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17857,4 +17850,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3C5C650-29AC-421F-AA7E-CD45E7DCCD8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/prueba25/B.06390_FFT_PS_MB_VAN_EA_DF1_Mangueras(1).xlsx
+++ b/prueba25/B.06390_FFT_PS_MB_VAN_EA_DF1_Mangueras(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enkro\P00106-ENKROSS_PRUEBA3_AUTOMATIZACION\prueba25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07609755-4098-4468-806A-BC313FC2E417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568ADC95-DB24-47E7-89D5-827097DBA24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{316398B4-956C-4C76-9070-795AC31D2C0E}"/>
   </bookViews>
@@ -2651,10 +2651,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2999,7 +2999,7 @@
   <dimension ref="A1:R310"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3676,7 +3676,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -17548,6 +17548,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4578e3cf-dc59-46b9-b473-9d64d86ba65a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="565c94a9-9f9d-407f-a547-016888b2b680" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005CCE8C70ADE6FD4DB948CF3BFC52CAB6" ma:contentTypeVersion="18" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d0d6baa5fddc89d1005b112fecbf2377">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4578e3cf-dc59-46b9-b473-9d64d86ba65a" xmlns:ns3="565c94a9-9f9d-407f-a547-016888b2b680" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6d27b4b9bbf274307dd4fa983c05e6fa" ns2:_="" ns3:_="">
     <xsd:import namespace="4578e3cf-dc59-46b9-b473-9d64d86ba65a"/>
@@ -17802,17 +17813,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4578e3cf-dc59-46b9-b473-9d64d86ba65a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="565c94a9-9f9d-407f-a547-016888b2b680" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -17823,6 +17823,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{960310BD-82B8-49B8-B945-56B288D99ACF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4578e3cf-dc59-46b9-b473-9d64d86ba65a"/>
+    <ds:schemaRef ds:uri="565c94a9-9f9d-407f-a547-016888b2b680"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED6AB0BC-81D3-460E-808A-9EDDBCBC1CCC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17841,17 +17852,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{960310BD-82B8-49B8-B945-56B288D99ACF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4578e3cf-dc59-46b9-b473-9d64d86ba65a"/>
-    <ds:schemaRef ds:uri="565c94a9-9f9d-407f-a547-016888b2b680"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3C5C650-29AC-421F-AA7E-CD45E7DCCD8A}">
   <ds:schemaRefs>
